--- a/data/pca/factorExposure/factorExposure_2013-05-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-20.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001494813327163812</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002030994428748059</v>
+      </c>
+      <c r="C2">
+        <v>-0.03222346803420244</v>
+      </c>
+      <c r="D2">
+        <v>-0.004854764318792212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001926605700827329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006099082409370217</v>
+      </c>
+      <c r="C4">
+        <v>-0.08458859562371894</v>
+      </c>
+      <c r="D4">
+        <v>-0.07889311287902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0001775589711975318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01354155676166824</v>
+      </c>
+      <c r="C6">
+        <v>-0.1076932694650112</v>
+      </c>
+      <c r="D6">
+        <v>-0.03515369068768263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001754881356640296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004826160052856868</v>
+      </c>
+      <c r="C7">
+        <v>-0.05291161696218588</v>
+      </c>
+      <c r="D7">
+        <v>-0.038699479165042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001606784081479694</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005662223417265413</v>
+      </c>
+      <c r="C8">
+        <v>-0.03646399892283072</v>
+      </c>
+      <c r="D8">
+        <v>-0.03896193036986646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004941759971914257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.0040492513147643</v>
+      </c>
+      <c r="C9">
+        <v>-0.06940812777532035</v>
+      </c>
+      <c r="D9">
+        <v>-0.0709366153312774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.003058445120749478</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005710067616678937</v>
+      </c>
+      <c r="C10">
+        <v>-0.07439752000480754</v>
+      </c>
+      <c r="D10">
+        <v>0.210613393839114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.004202765146866372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.00514227541823323</v>
+      </c>
+      <c r="C11">
+        <v>-0.07827716860085321</v>
+      </c>
+      <c r="D11">
+        <v>-0.0651238717315871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0003892538922131748</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003851126644098636</v>
+      </c>
+      <c r="C12">
+        <v>-0.06356172552840053</v>
+      </c>
+      <c r="D12">
+        <v>-0.04699128591907301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003419118236224489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008679059882608938</v>
+      </c>
+      <c r="C13">
+        <v>-0.06880810341032594</v>
+      </c>
+      <c r="D13">
+        <v>-0.0684182012033199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002613758184402596</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001589095227802474</v>
+      </c>
+      <c r="C14">
+        <v>-0.04673367939489361</v>
+      </c>
+      <c r="D14">
+        <v>-0.01461121404236548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.002615196078559248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005878750804507667</v>
+      </c>
+      <c r="C15">
+        <v>-0.03880969491064578</v>
+      </c>
+      <c r="D15">
+        <v>-0.03762982351688268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.00236953309288166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004865684322806521</v>
+      </c>
+      <c r="C16">
+        <v>-0.06423734090712536</v>
+      </c>
+      <c r="D16">
+        <v>-0.04952090406383553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-7.358027386071827e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.009001759756521935</v>
+      </c>
+      <c r="C20">
+        <v>-0.06468657984133865</v>
+      </c>
+      <c r="D20">
+        <v>-0.05682040998082943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.004057053728222641</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.00996049058701636</v>
+      </c>
+      <c r="C21">
+        <v>-0.02355756199570273</v>
+      </c>
+      <c r="D21">
+        <v>-0.03492345873507347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01663948460187101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006855719218643446</v>
+      </c>
+      <c r="C22">
+        <v>-0.09206857465400033</v>
+      </c>
+      <c r="D22">
+        <v>-0.0967391503057934</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01698446808253096</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006646942062265251</v>
+      </c>
+      <c r="C23">
+        <v>-0.09310157759267551</v>
+      </c>
+      <c r="D23">
+        <v>-0.09730684106102623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.0029995664267475</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004765027487988905</v>
+      </c>
+      <c r="C24">
+        <v>-0.07278514879616861</v>
+      </c>
+      <c r="D24">
+        <v>-0.06153021169911142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004599633502184184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002772372750088622</v>
+      </c>
+      <c r="C25">
+        <v>-0.07718176735533999</v>
+      </c>
+      <c r="D25">
+        <v>-0.06592802830621103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006154435923947744</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003566725497672475</v>
+      </c>
+      <c r="C26">
+        <v>-0.04079645596741747</v>
+      </c>
+      <c r="D26">
+        <v>-0.02777705407570897</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007151606999939571</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.000326794077221126</v>
+      </c>
+      <c r="C28">
+        <v>-0.1257346866916384</v>
+      </c>
+      <c r="D28">
+        <v>0.3097207535098889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002457556465140634</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003283441397455265</v>
+      </c>
+      <c r="C29">
+        <v>-0.04824676767099653</v>
+      </c>
+      <c r="D29">
+        <v>-0.01663147052687686</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004382789902532864</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008729604324296114</v>
+      </c>
+      <c r="C30">
+        <v>-0.1369952829161851</v>
+      </c>
+      <c r="D30">
+        <v>-0.110712048220095</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-6.219992020372713e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006079686307849531</v>
+      </c>
+      <c r="C31">
+        <v>-0.04533931984052551</v>
+      </c>
+      <c r="D31">
+        <v>-0.03227415093573664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.00211030330675443</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003990184927762189</v>
+      </c>
+      <c r="C32">
+        <v>-0.0412930783704232</v>
+      </c>
+      <c r="D32">
+        <v>-0.01381190200792505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003275936505341792</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007714077529028812</v>
+      </c>
+      <c r="C33">
+        <v>-0.08224580938137037</v>
+      </c>
+      <c r="D33">
+        <v>-0.07373087663758911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004875962362884997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003713227244299609</v>
+      </c>
+      <c r="C34">
+        <v>-0.05728617357676066</v>
+      </c>
+      <c r="D34">
+        <v>-0.04693857848326558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.003648660034958883</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004813401717473726</v>
+      </c>
+      <c r="C35">
+        <v>-0.03871328324563632</v>
+      </c>
+      <c r="D35">
+        <v>-0.0129281954371931</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004325066988718923</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001351855982411666</v>
+      </c>
+      <c r="C36">
+        <v>-0.02352466630330067</v>
+      </c>
+      <c r="D36">
+        <v>-0.0218225206338514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002277811620092354</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009321890926269803</v>
+      </c>
+      <c r="C38">
+        <v>-0.03248811500461589</v>
+      </c>
+      <c r="D38">
+        <v>-0.02189849826388167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01331873502388836</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.000931799051512705</v>
+      </c>
+      <c r="C39">
+        <v>-0.1149010669859503</v>
+      </c>
+      <c r="D39">
+        <v>-0.08465154159093094</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007671903754541791</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002364617969670283</v>
+      </c>
+      <c r="C40">
+        <v>-0.08698375208394174</v>
+      </c>
+      <c r="D40">
+        <v>-0.02407189719842514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0002039717727104517</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007364105302832323</v>
+      </c>
+      <c r="C41">
+        <v>-0.03864323545920507</v>
+      </c>
+      <c r="D41">
+        <v>-0.03545802536822838</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002881363844928328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003365379445450544</v>
+      </c>
+      <c r="C43">
+        <v>-0.05020581178293047</v>
+      </c>
+      <c r="D43">
+        <v>-0.02754338690557292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00464665309450796</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003746715105479162</v>
+      </c>
+      <c r="C44">
+        <v>-0.1084305465978717</v>
+      </c>
+      <c r="D44">
+        <v>-0.08358498255021947</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.00220612402864221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002343537984968642</v>
+      </c>
+      <c r="C46">
+        <v>-0.03464615664155378</v>
+      </c>
+      <c r="D46">
+        <v>-0.03347444894061179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0008057420274304299</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002917477256865793</v>
+      </c>
+      <c r="C47">
+        <v>-0.03939125321859391</v>
+      </c>
+      <c r="D47">
+        <v>-0.02435352152246877</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004133066842443868</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006407233298242676</v>
+      </c>
+      <c r="C48">
+        <v>-0.02865228145184209</v>
+      </c>
+      <c r="D48">
+        <v>-0.03041164934843942</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.0127335798003452</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01417341889606761</v>
+      </c>
+      <c r="C49">
+        <v>-0.1711916514972036</v>
+      </c>
+      <c r="D49">
+        <v>-0.03298800207347863</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0001267648551936616</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003658152463146907</v>
+      </c>
+      <c r="C50">
+        <v>-0.04229567619604823</v>
+      </c>
+      <c r="D50">
+        <v>-0.03612246677368766</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001788203219919792</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004231722522463759</v>
+      </c>
+      <c r="C51">
+        <v>-0.01980007379256784</v>
+      </c>
+      <c r="D51">
+        <v>-0.03278199992498203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.00120427201468878</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02039067573316218</v>
+      </c>
+      <c r="C53">
+        <v>-0.1655289687443034</v>
+      </c>
+      <c r="D53">
+        <v>-0.05089793395056837</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0001767993252464913</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008578850661503634</v>
+      </c>
+      <c r="C54">
+        <v>-0.05520516463216246</v>
+      </c>
+      <c r="D54">
+        <v>-0.04250489694141839</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004613031377083113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009362080293418977</v>
+      </c>
+      <c r="C55">
+        <v>-0.1053692583828395</v>
+      </c>
+      <c r="D55">
+        <v>-0.05260187754653112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003515079406927104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.0196417251288468</v>
+      </c>
+      <c r="C56">
+        <v>-0.1713703469653239</v>
+      </c>
+      <c r="D56">
+        <v>-0.05058301961214794</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007951334474140224</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01952039833183878</v>
+      </c>
+      <c r="C58">
+        <v>-0.1027306510340269</v>
+      </c>
+      <c r="D58">
+        <v>-0.07529358957443343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.008719621690054058</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009667752738968007</v>
+      </c>
+      <c r="C59">
+        <v>-0.1695724836053646</v>
+      </c>
+      <c r="D59">
+        <v>0.2815893303056262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006608698930331953</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02346747631892573</v>
+      </c>
+      <c r="C60">
+        <v>-0.2210056535119983</v>
+      </c>
+      <c r="D60">
+        <v>-0.02881542133718469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01449815139769591</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001984569702730208</v>
+      </c>
+      <c r="C61">
+        <v>-0.09446150470565709</v>
+      </c>
+      <c r="D61">
+        <v>-0.06290197146106535</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1808924484069495</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1438228449642371</v>
+      </c>
+      <c r="C62">
+        <v>-0.07743896574684592</v>
+      </c>
+      <c r="D62">
+        <v>-0.05440959933761289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001419661892469586</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006395150755374001</v>
+      </c>
+      <c r="C63">
+        <v>-0.05902824563123028</v>
+      </c>
+      <c r="D63">
+        <v>-0.02631554638375031</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.006966837412695393</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01471972459212088</v>
+      </c>
+      <c r="C64">
+        <v>-0.1025793245782263</v>
+      </c>
+      <c r="D64">
+        <v>-0.06413146125706938</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0008209867731926373</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01721352463498304</v>
+      </c>
+      <c r="C65">
+        <v>-0.1146087948066708</v>
+      </c>
+      <c r="D65">
+        <v>-0.02787572215309939</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008011970179709567</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01224883272900554</v>
+      </c>
+      <c r="C66">
+        <v>-0.153569055740811</v>
+      </c>
+      <c r="D66">
+        <v>-0.1223536219512745</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002550942436307831</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01542112148796178</v>
+      </c>
+      <c r="C67">
+        <v>-0.06218833598853124</v>
+      </c>
+      <c r="D67">
+        <v>-0.03284150186947735</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.009232634719678855</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001391913585093474</v>
+      </c>
+      <c r="C68">
+        <v>-0.1083918598231837</v>
+      </c>
+      <c r="D68">
+        <v>0.261808570305591</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002541329805568047</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005863182485999202</v>
+      </c>
+      <c r="C69">
+        <v>-0.04754158671686422</v>
+      </c>
+      <c r="D69">
+        <v>-0.04219604301269006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001726730234196998</v>
+      </c>
+      <c r="C70">
+        <v>-0.002072377301233559</v>
+      </c>
+      <c r="D70">
+        <v>-0.002101821369234614</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.00546321972878579</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006249244404996955</v>
+      </c>
+      <c r="C71">
+        <v>-0.1112939965197367</v>
+      </c>
+      <c r="D71">
+        <v>0.2842999546696607</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008651308175535636</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01541421609859583</v>
+      </c>
+      <c r="C72">
+        <v>-0.1485350198258122</v>
+      </c>
+      <c r="D72">
+        <v>-0.02593717985864966</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01344723558766692</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02929871499177263</v>
+      </c>
+      <c r="C73">
+        <v>-0.2817255331703179</v>
+      </c>
+      <c r="D73">
+        <v>-0.0487261660328978</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.003980759092592968</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001507405621630776</v>
+      </c>
+      <c r="C74">
+        <v>-0.1048528926283463</v>
+      </c>
+      <c r="D74">
+        <v>-0.04365610878441521</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006202935469239354</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01071908316501966</v>
+      </c>
+      <c r="C75">
+        <v>-0.1309291902082764</v>
+      </c>
+      <c r="D75">
+        <v>-0.0366517143383394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01179424469938718</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02136397767917119</v>
+      </c>
+      <c r="C76">
+        <v>-0.1463612024585382</v>
+      </c>
+      <c r="D76">
+        <v>-0.07347173949352689</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001700989495440052</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02435872541488474</v>
+      </c>
+      <c r="C77">
+        <v>-0.1333397203250477</v>
+      </c>
+      <c r="D77">
+        <v>-0.06500659858299196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0001468719717270781</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01421352980028855</v>
+      </c>
+      <c r="C78">
+        <v>-0.09197861909905973</v>
+      </c>
+      <c r="D78">
+        <v>-0.0682916479483234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02637273739038319</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.0368692647994929</v>
+      </c>
+      <c r="C79">
+        <v>-0.1560306231235623</v>
+      </c>
+      <c r="D79">
+        <v>-0.03542261533533222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005319870132336215</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01057840861415258</v>
+      </c>
+      <c r="C80">
+        <v>-0.04090677725038434</v>
+      </c>
+      <c r="D80">
+        <v>-0.03289811606170387</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0002408842132660189</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01460448046919762</v>
+      </c>
+      <c r="C81">
+        <v>-0.1211242391892711</v>
+      </c>
+      <c r="D81">
+        <v>-0.05738337389635544</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006756937553356766</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01958256049821183</v>
+      </c>
+      <c r="C82">
+        <v>-0.1420338688582104</v>
+      </c>
+      <c r="D82">
+        <v>-0.04728411739975773</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006105699783399946</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009602859913359428</v>
+      </c>
+      <c r="C83">
+        <v>-0.05313409191872955</v>
+      </c>
+      <c r="D83">
+        <v>-0.04914166314323298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01349472273105134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01175294613241577</v>
+      </c>
+      <c r="C84">
+        <v>-0.03186555102630154</v>
+      </c>
+      <c r="D84">
+        <v>-0.001169432159291045</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01555580260002171</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02798592350511321</v>
+      </c>
+      <c r="C85">
+        <v>-0.1281008707371439</v>
+      </c>
+      <c r="D85">
+        <v>-0.05406429142200415</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002958578616257803</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005589464771437922</v>
+      </c>
+      <c r="C86">
+        <v>-0.05014939691019387</v>
+      </c>
+      <c r="D86">
+        <v>-0.02203713896835911</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007352081522556842</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01014137709178619</v>
+      </c>
+      <c r="C87">
+        <v>-0.1278654790863988</v>
+      </c>
+      <c r="D87">
+        <v>-0.08049182050736599</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01415989655782229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002900240861379831</v>
+      </c>
+      <c r="C88">
+        <v>-0.06897489728898008</v>
+      </c>
+      <c r="D88">
+        <v>-0.01698792226922626</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01821686886955457</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.0008685419327867729</v>
+      </c>
+      <c r="C89">
+        <v>-0.1622016666058858</v>
+      </c>
+      <c r="D89">
+        <v>0.3437795383964365</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.005035643324731764</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007519239999207703</v>
+      </c>
+      <c r="C90">
+        <v>-0.1403440041888394</v>
+      </c>
+      <c r="D90">
+        <v>0.315555165810146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001859051577141362</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.0103179511514866</v>
+      </c>
+      <c r="C91">
+        <v>-0.1048841910751444</v>
+      </c>
+      <c r="D91">
+        <v>-0.02020630225641382</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01454311153737883</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0006410081143732419</v>
+      </c>
+      <c r="C92">
+        <v>-0.1514659080884526</v>
+      </c>
+      <c r="D92">
+        <v>0.3272827287888033</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.003765862562150038</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005550803268462905</v>
+      </c>
+      <c r="C93">
+        <v>-0.1249553798837436</v>
+      </c>
+      <c r="D93">
+        <v>0.3143348043651419</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004292329373491986</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02231349897682726</v>
+      </c>
+      <c r="C94">
+        <v>-0.1559848988185924</v>
+      </c>
+      <c r="D94">
+        <v>-0.03753040159504078</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004773822949254906</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01599224464386789</v>
+      </c>
+      <c r="C95">
+        <v>-0.1238873797317321</v>
+      </c>
+      <c r="D95">
+        <v>-0.06856228572014514</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002502145484017083</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03450608858725036</v>
+      </c>
+      <c r="C97">
+        <v>-0.1785608973377191</v>
+      </c>
+      <c r="D97">
+        <v>-0.04123931344854841</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.00637913817926377</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03564420394618782</v>
+      </c>
+      <c r="C98">
+        <v>-0.2535588601176268</v>
+      </c>
+      <c r="D98">
+        <v>-0.04374521292304315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9811365160716143</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9826869415146864</v>
+      </c>
+      <c r="C99">
+        <v>0.1099646696293385</v>
+      </c>
+      <c r="D99">
+        <v>0.03238995461507378</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.002417232941253459</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003324522720806506</v>
+      </c>
+      <c r="C101">
+        <v>-0.0482720382588307</v>
+      </c>
+      <c r="D101">
+        <v>-0.0169930712721151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
